--- a/Расходы.xlsx
+++ b/Расходы.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
-  <si>
-    <t>Сводные данные по бюджету НОЯБРЬ 2023</t>
-  </si>
-  <si>
-    <t>на 2.01.2024</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
+  <si>
+    <t>Сводные данные по бюджету ЯНВАРЬ 2024</t>
+  </si>
+  <si>
+    <t>на 3.01.2024</t>
   </si>
   <si>
     <t>Статья расхода</t>
@@ -51,7 +51,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473951</t>
+      <t xml:space="preserve">CUB0000475991</t>
     </r>
     <r>
       <t xml:space="preserve"> - Средства на оплату аренды помещений.</t>
@@ -68,33 +68,13 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000474391</t>
+      <t xml:space="preserve">CUB0000475996</t>
     </r>
     <r>
       <t xml:space="preserve"> - Средства на оплату аренды помещений.</t>
     </r>
   </si>
   <si>
-    <t>СП Аутстаффинг ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473953</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Наемный персонал</t>
-    </r>
-  </si>
-  <si>
     <t>СП Вахта ПР</t>
   </si>
   <si>
@@ -108,7 +88,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473896</t>
+      <t xml:space="preserve">CUB0000475518</t>
     </r>
     <r>
       <t xml:space="preserve"> - Оплата  за услуги доставки сотрудников. Договор об оказании транспортных услуг с экипажем №б/н от 16.08.2017 ИП Малюский</t>
@@ -128,30 +108,13 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000311053</t>
+      <t xml:space="preserve">CUB0000311054</t>
     </r>
     <r>
       <t xml:space="preserve"> - Вывоз мусора ежемесячная услуга Договор на сбор и вывоз отходов. Два КА по вывозу отходов. Рег.оператор на ТКО и перевозчик отходов не относящихся к ТКО. Лимит учтен в статье Крммунальные и ПР.  </t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473956</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Вывоз Биотходов. Услуга</t>
-    </r>
-  </si>
-  <si>
     <t>СП ГСМ</t>
   </si>
   <si>
@@ -165,7 +128,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473921</t>
+      <t xml:space="preserve">CUB0000475530</t>
     </r>
     <r>
       <t xml:space="preserve"> - Заправка транспорта использовавшего для производственных нужд</t>
@@ -185,7 +148,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473914</t>
+      <t xml:space="preserve">CUB0000475526</t>
     </r>
     <r>
       <t xml:space="preserve"> - Закупка датчиков и ч/п на оборудования производства, ТЭНы.</t>
@@ -202,7 +165,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473922</t>
+      <t xml:space="preserve">CUB0000475531</t>
     </r>
     <r>
       <t xml:space="preserve"> - Копир на резку  ANKO</t>
@@ -219,33 +182,13 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473923</t>
+      <t xml:space="preserve">CUB0000475532</t>
     </r>
     <r>
       <t xml:space="preserve"> - Подшипники, манжеты, кольца, РТИ, метизы на производственное оборудование.</t>
     </r>
   </si>
   <si>
-    <t>СП Инженерная документация</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000471587</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Испытание лестничного марша</t>
-    </r>
-  </si>
-  <si>
     <t>СП Инструмент и инвентарь ПР</t>
   </si>
   <si>
@@ -259,7 +202,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473916</t>
+      <t xml:space="preserve">CUB0000475527</t>
     </r>
     <r>
       <t xml:space="preserve"> - Закупка п/п трубы и фитнги  для подключения сжатого воздуха в ИТП, разделочные ножи для кабелей, ножовочные полотна по металлу, тиски для  сверлильного станка. </t>
@@ -276,110 +219,33 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473938</t>
+      <t xml:space="preserve">CUB0000475920</t>
     </r>
     <r>
       <t xml:space="preserve"> - Закупка уборочного инвентаря в цеха производства</t>
     </r>
   </si>
   <si>
-    <t>СП Информационные и консультационные услуги</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473901</t>
+    <t>СП Информационные и консультационные услуги ПР</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475522</t>
     </r>
     <r>
       <t xml:space="preserve"> - ежемесячная поверка СИ</t>
     </r>
   </si>
   <si>
-    <t>СП Информационные и консультационные услуги ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473222</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Обследование конструкций Мезонин</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Коммунальные услуги прочие ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473960</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Дератизация. Дезинсекция.</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Лабораторные исследования и сертификация ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473954</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Услуги вет. врача</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473955</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Лабораторные исследования сырья, воды, ГП, производственного оборудования, холодильных камер, рук и одежды рабочих в рамках производственного контроля (определение физ-хим, микробиологических, гигиенических, органолептических показателей).</t>
-    </r>
-  </si>
-  <si>
     <t>СП Офисные и канцелярские расходные материалы</t>
   </si>
   <si>
@@ -393,7 +259,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473948</t>
+      <t xml:space="preserve">CUB0000475983</t>
     </r>
     <r>
       <t xml:space="preserve"> - Бумага А4 для нужд офиса, производства, склада и лаборатории</t>
@@ -410,429 +276,332 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473949</t>
+      <t xml:space="preserve">CUB0000475984</t>
     </r>
     <r>
       <t xml:space="preserve"> - Закупка канцелярии для нужд офиса, проиводства, склада и лаборатории.</t>
     </r>
   </si>
   <si>
-    <t>СП Прочие общехозяйственные расходы</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000474392</t>
+    <t>СП Прочие расходы на персонал ПР</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000474580</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Поощрение сотрудников по итогу года.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475915</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Питание сотрудников </t>
+    </r>
+  </si>
+  <si>
+    <t>СП Расходы на обучение ПР</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475990</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Обучение на водителей погрузчика</t>
+    </r>
+  </si>
+  <si>
+    <t>СП Расходы на обязательное медобслуживание ПР</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475536</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Периодический МО Стоимость с учетом санитарного минимума </t>
+    </r>
+  </si>
+  <si>
+    <t>СП Расходы на охрану</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475525</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - ООО " ОО Император ", договор №82-18 от 01.08.2018. Ежемесячная оплата за охрану объекта</t>
+    </r>
+  </si>
+  <si>
+    <t>СП Расходы по подбору персонала ПР</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475533</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Размещение рекламы в лифтах города. Поиск кандидатов на открытые вакансии</t>
+    </r>
+  </si>
+  <si>
+    <t>СП Ремонт и ТО инженерной инфраструктуры ПР</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475528</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Услуги чистки жироуловителя - ежемесячно Договор на выполнение работ №8010 от 21.11.17 ООО "Волгакомсервис"</t>
+    </r>
+  </si>
+  <si>
+    <t>СП Ремонт и ТО помещений, зданий, территории ПР</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475519</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Ежемесячное Т.О.пожарного оборудования Договор по оказанию услуг  ООО "СКБ"№ 0412/ТО от 14.12.2017г.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475520</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Затраты по договору спасательных услуг по договору № 112554 от 4.09.19</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000476033</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Закупка металических шин заземления, листов нерж. для ремонта помещения, обрамление проходов между цехами</t>
+    </r>
+  </si>
+  <si>
+    <t>СП Спецодежда и СИЗ ПР</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475919</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Закупка спецодежды для сотрудников производства</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475985</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Закупка СиЗ для сотрудников производства</t>
+    </r>
+  </si>
+  <si>
+    <t>СП Текущий ремонт и ТО технологического оборудования ПР</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475521</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Ежемесячное Т.О.  весового оборудования  Договор на техническое обслуживание и ремонт весового оборудования № СКСС39/17 от 21.11.2017</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475523</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Ремонт плат и электродвигатели</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475524</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - ТО холодильного оборудования, ремонт сплит-системы</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475529</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> - Ремонт формовочных, вырубных валов на РСА, ремонт осевых валов, изготовление шестерен, валов корпусов на узлы оборудования.</t>
+    </r>
+  </si>
+  <si>
+    <t>СП Услуги связи</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="true"/>
+        <strike val="false"/>
+        <color rgb="FF000000"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CUB0000475992</t>
     </r>
     <r>
       <t xml:space="preserve"> - Интернет, мобильная связь, почтовые расходы</t>
     </r>
   </si>
   <si>
-    <t>СП Прочие расходы на персонал ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473934</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Питание сотрудников </t>
-    </r>
-  </si>
-  <si>
-    <t>СП Прочие расходы ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000474221</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Закупка Фреона</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Расходы на обучение ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473915</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Обучение сотрудников ИТО</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473952</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Обучение на водителей погрузчика</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Расходы на обязательное медобслуживание ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473886</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Периодический МО Стоимость с учетом санитарного минимума </t>
-    </r>
-  </si>
-  <si>
-    <t>СП Расходы на охрану</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473912</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - ООО " ОО Император ", договор №82-18 от 01.08.2018. Ежемесячная оплата за охрану объекта</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Расходы по подбору персонала ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473887</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Размещение рекламы в лифтах города. Поиск кандидатов на открытые вакансии</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Ремонт и ТО инженерной инфраструктуры ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473917</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Услуги чистки жироуловителя - ежемесячно Договор на выполнение работ №8010 от 21.11.17 ООО "Волгакомсервис"</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Ремонт и ТО помещений, зданий, территории ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473898</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Ежемесячное Т.О.пожарного оборудования Договор по оказанию услуг  ООО "СКБ"№ 0412/ТО от 14.12.2017г.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473899</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Затраты по договору спасательных услуг по договору № 112554 от 4.09.19</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Ремонт и ТО прочего оборудования ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473909</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - ТО холодильного оборудования, ремонт сплит-системы</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473910</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - ТО водоподготовки</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Ремонт/ТО ИТ оборудования</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473913</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Узел закрепления в сборе FK-1150 (302RV93050), Тонер для заправки картриджей Kyocera TK-1150 (1 кг), Ролик отделения бумаги (302F909171)</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Спецодежда и СИЗ ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473936</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Закупка спецодежды для сотрудников производства</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473950</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Закупка СиЗ для сотрудников производства</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Текущий ремонт и ТО технологического оборудования ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473908</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Ремонт плат и электродвигатели</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473911</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Ежемесячное Т.О.  весового оборудования  Договор на техническое обслуживание и ремонт весового оборудования № СКСС39/17 от 21.11.2017</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473918</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Ремонт формовочных, вырубных валов на РСА, ремонт осевых валов, изготовление шестерен, валов корпусов на узлы оборудования.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473920</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - ТО компрессорного оборудования</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473961</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Поверка люминометра</t>
-    </r>
-  </si>
-  <si>
-    <t>СП Услуги страхования ПР</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000472157</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - СП Услуги страхования ПР</t>
-    </r>
-  </si>
-  <si>
     <t>СП Хозяйственный и прочие расходные материалы</t>
   </si>
   <si>
@@ -846,24 +615,7 @@
         <sz val="11"/>
         <u val="none"/>
       </rPr>
-      <t xml:space="preserve">CUB0000473907</t>
-    </r>
-    <r>
-      <t xml:space="preserve"> - Закупка соли для водоподготовки</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <b val="true"/>
-        <i val="true"/>
-        <strike val="false"/>
-        <color rgb="FF000000"/>
-        <sz val="11"/>
-        <u val="none"/>
-      </rPr>
-      <t xml:space="preserve">CUB0000473935</t>
+      <t xml:space="preserve">CUB0000475918</t>
     </r>
     <r>
       <t xml:space="preserve"> - Закупка хозматериалов для производства</t>
@@ -1298,7 +1050,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A2" sqref="A2"/>
@@ -1356,7 +1108,7 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473951</t>
+            <t xml:space="preserve">CUB0000475991</t>
           </r>
           <r>
             <t xml:space="preserve"> - Средства на оплату аренды помещений.</t>
@@ -1364,13 +1116,13 @@
         </is>
       </c>
       <c r="C4" s="8">
-        <v>2260055.07</v>
+        <v>21500</v>
       </c>
       <c r="D4" s="8">
-        <v>2260055.07</v>
+        <v>0</v>
       </c>
       <c r="E4" s="10">
-        <v>-4.6566128730774E-10</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1387,7 +1139,7 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000474391</t>
+            <t xml:space="preserve">CUB0000475996</t>
           </r>
           <r>
             <t xml:space="preserve"> - Средства на оплату аренды помещений.</t>
@@ -1395,13 +1147,13 @@
         </is>
       </c>
       <c r="C5" s="8">
-        <v>21500.0</v>
+        <v>1000000</v>
       </c>
       <c r="D5" s="8">
-        <v>21500</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1000000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1420,21 +1172,21 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473953</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Наемный персонал</t>
+            <t xml:space="preserve">CUB0000475518</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Оплата  за услуги доставки сотрудников. Договор об оказании транспортных услуг с экипажем №б/н от 16.08.2017 ИП Малюский</t>
           </r>
         </is>
       </c>
       <c r="C6" s="8">
-        <v>125000.0</v>
+        <v>360000</v>
       </c>
       <c r="D6" s="8">
         <v>0</v>
       </c>
       <c r="E6" s="10">
-        <v>125000</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1453,21 +1205,21 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473896</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Оплата  за услуги доставки сотрудников. Договор об оказании транспортных услуг с экипажем №б/н от 16.08.2017 ИП Малюский</t>
+            <t xml:space="preserve">CUB0000311054</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Вывоз мусора ежемесячная услуга Договор на сбор и вывоз отходов. Два КА по вывозу отходов. Рег.оператор на ТКО и перевозчик отходов не относящихся к ТКО. Лимит учтен в статье Крммунальные и ПР.  </t>
           </r>
         </is>
       </c>
       <c r="C7" s="8">
-        <v>360000.0</v>
+        <v>77462.1</v>
       </c>
       <c r="D7" s="8">
-        <v>253800</v>
+        <v>0</v>
       </c>
       <c r="E7" s="10">
-        <v>106200</v>
+        <v>77462.1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1486,25 +1238,27 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000311053</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Вывоз мусора ежемесячная услуга Договор на сбор и вывоз отходов. Два КА по вывозу отходов. Рег.оператор на ТКО и перевозчик отходов не относящихся к ТКО. Лимит учтен в статье Крммунальные и ПР.  </t>
+            <t xml:space="preserve">CUB0000475530</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Заправка транспорта использовавшего для производственных нужд</t>
           </r>
         </is>
       </c>
       <c r="C8" s="8">
-        <v>77462.1</v>
+        <v>5940</v>
       </c>
       <c r="D8" s="8">
-        <v>46402.88</v>
+        <v>0</v>
       </c>
       <c r="E8" s="10">
-        <v>31059.22</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="B9" s="5" t="inlineStr">
         <is>
           <r>
@@ -1517,27 +1271,25 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473956</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Вывоз Биотходов. Услуга</t>
+            <t xml:space="preserve">CUB0000475526</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Закупка датчиков и ч/п на оборудования производства, ТЭНы.</t>
           </r>
         </is>
       </c>
       <c r="C9" s="8">
-        <v>32000.0</v>
+        <v>50000</v>
       </c>
       <c r="D9" s="8">
-        <v>32000</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="5" t="inlineStr">
         <is>
           <r>
@@ -1550,27 +1302,25 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473921</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Заправка транспорта использовавшего для производственных нужд</t>
+            <t xml:space="preserve">CUB0000475531</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Копир на резку  ANKO</t>
           </r>
         </is>
       </c>
       <c r="C10" s="8">
-        <v>5940.0</v>
+        <v>80000</v>
       </c>
       <c r="D10" s="8">
-        <v>5908.98</v>
+        <v>0</v>
       </c>
       <c r="E10" s="10">
-        <v>31.02</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="5" t="inlineStr">
         <is>
           <r>
@@ -1583,25 +1333,27 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473914</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Закупка датчиков и ч/п на оборудования производства, ТЭНы.</t>
+            <t xml:space="preserve">CUB0000475532</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Подшипники, манжеты, кольца, РТИ, метизы на производственное оборудование.</t>
           </r>
         </is>
       </c>
       <c r="C11" s="8">
-        <v>187000.0</v>
+        <v>50000</v>
       </c>
       <c r="D11" s="8">
-        <v>187000</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>50000</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
+      <c r="A12" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="B12" s="5" t="inlineStr">
         <is>
           <r>
@@ -1614,21 +1366,21 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473922</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Копир на резку  ANKO</t>
+            <t xml:space="preserve">CUB0000475527</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Закупка п/п трубы и фитнги  для подключения сжатого воздуха в ИТП, разделочные ножи для кабелей, ножовочные полотна по металлу, тиски для  сверлильного станка. </t>
           </r>
         </is>
       </c>
       <c r="C12" s="8">
-        <v>128804.0</v>
+        <v>42000</v>
       </c>
       <c r="D12" s="8">
-        <v>106115.09</v>
+        <v>0</v>
       </c>
       <c r="E12" s="10">
-        <v>22688.91</v>
+        <v>42000</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1645,21 +1397,21 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473923</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Подшипники, манжеты, кольца, РТИ, метизы на производственное оборудование.</t>
+            <t xml:space="preserve">CUB0000475920</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Закупка уборочного инвентаря в цеха производства</t>
           </r>
         </is>
       </c>
       <c r="C13" s="8">
-        <v>204629.0</v>
+        <v>142200</v>
       </c>
       <c r="D13" s="8">
-        <v>148663.34</v>
+        <v>0</v>
       </c>
       <c r="E13" s="10">
-        <v>55965.66</v>
+        <v>142200</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1678,21 +1430,21 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000471587</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Испытание лестничного марша</t>
+            <t xml:space="preserve">CUB0000475522</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - ежемесячная поверка СИ</t>
           </r>
         </is>
       </c>
       <c r="C14" s="8">
-        <v>110000.0</v>
+        <v>11000</v>
       </c>
       <c r="D14" s="8">
         <v>0</v>
       </c>
       <c r="E14" s="10">
-        <v>110000</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1711,21 +1463,21 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473916</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Закупка п/п трубы и фитнги  для подключения сжатого воздуха в ИТП, разделочные ножи для кабелей, ножовочные полотна по металлу, тиски для  сверлильного станка. </t>
+            <t xml:space="preserve">CUB0000475983</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Бумага А4 для нужд офиса, производства, склада и лаборатории</t>
           </r>
         </is>
       </c>
       <c r="C15" s="8">
-        <v>42000.0</v>
+        <v>15000</v>
       </c>
       <c r="D15" s="8">
-        <v>42000</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>15000</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1742,21 +1494,21 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473938</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Закупка уборочного инвентаря в цеха производства</t>
+            <t xml:space="preserve">CUB0000475984</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Закупка канцелярии для нужд офиса, проиводства, склада и лаборатории.</t>
           </r>
         </is>
       </c>
       <c r="C16" s="8">
-        <v>120000.0</v>
+        <v>12500</v>
       </c>
       <c r="D16" s="8">
-        <v>120000</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E16" s="10">
+        <v>12500</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1775,27 +1527,25 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473901</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - ежемесячная поверка СИ</t>
+            <t xml:space="preserve">CUB0000474580</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Поощрение сотрудников по итогу года.</t>
           </r>
         </is>
       </c>
       <c r="C17" s="8">
-        <v>11000.0</v>
+        <v>350000</v>
       </c>
       <c r="D17" s="8">
-        <v>7668.7</v>
+        <v>0</v>
       </c>
       <c r="E17" s="10">
-        <v>3331.3</v>
+        <v>350000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A18" s="5"/>
       <c r="B18" s="5" t="inlineStr">
         <is>
           <r>
@@ -1808,26 +1558,26 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473222</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Обследование конструкций Мезонин</t>
+            <t xml:space="preserve">CUB0000475915</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Питание сотрудников </t>
           </r>
         </is>
       </c>
       <c r="C18" s="8">
-        <v>950000.0</v>
+        <v>120000</v>
       </c>
       <c r="D18" s="8">
         <v>0</v>
       </c>
       <c r="E18" s="10">
-        <v>950000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" s="5" t="inlineStr">
         <is>
@@ -1841,26 +1591,26 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473960</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Дератизация. Дезинсекция.</t>
+            <t xml:space="preserve">CUB0000475990</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Обучение на водителей погрузчика</t>
           </r>
         </is>
       </c>
       <c r="C19" s="8">
-        <v>46500.0</v>
+        <v>20000</v>
       </c>
       <c r="D19" s="8">
-        <v>5830</v>
+        <v>0</v>
       </c>
       <c r="E19" s="10">
-        <v>40670</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5" t="inlineStr">
         <is>
@@ -1874,25 +1624,27 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473954</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Услуги вет. врача</t>
+            <t xml:space="preserve">CUB0000475536</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Периодический МО Стоимость с учетом санитарного минимума </t>
           </r>
         </is>
       </c>
       <c r="C20" s="8">
-        <v>3300.0</v>
+        <v>45000</v>
       </c>
       <c r="D20" s="8">
-        <v>2498.33</v>
+        <v>0</v>
       </c>
       <c r="E20" s="10">
-        <v>801.67</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
+      <c r="A21" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="B21" s="5" t="inlineStr">
         <is>
           <r>
@@ -1905,21 +1657,21 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473955</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Лабораторные исследования сырья, воды, ГП, производственного оборудования, холодильных камер, рук и одежды рабочих в рамках производственного контроля (определение физ-хим, микробиологических, гигиенических, органолептических показателей).</t>
+            <t xml:space="preserve">CUB0000475525</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - ООО " ОО Император ", договор №82-18 от 01.08.2018. Ежемесячная оплата за охрану объекта</t>
           </r>
         </is>
       </c>
       <c r="C21" s="8">
-        <v>150000.0</v>
+        <v>304000</v>
       </c>
       <c r="D21" s="8">
-        <v>125854.67</v>
+        <v>0</v>
       </c>
       <c r="E21" s="10">
-        <v>24145.33</v>
+        <v>304000</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1938,25 +1690,27 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473948</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Бумага А4 для нужд офиса, производства, склада и лаборатории</t>
+            <t xml:space="preserve">CUB0000475533</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Размещение рекламы в лифтах города. Поиск кандидатов на открытые вакансии</t>
           </r>
         </is>
       </c>
       <c r="C22" s="8">
-        <v>11340.0</v>
+        <v>106250</v>
       </c>
       <c r="D22" s="8">
-        <v>11340</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E22" s="10">
+        <v>106250</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
+      <c r="A23" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="B23" s="5" t="inlineStr">
         <is>
           <r>
@@ -1969,26 +1723,26 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473949</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Закупка канцелярии для нужд офиса, проиводства, склада и лаборатории.</t>
+            <t xml:space="preserve">CUB0000475528</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Услуги чистки жироуловителя - ежемесячно Договор на выполнение работ №8010 от 21.11.17 ООО "Волгакомсервис"</t>
           </r>
         </is>
       </c>
       <c r="C23" s="8">
-        <v>16160.0</v>
+        <v>36000</v>
       </c>
       <c r="D23" s="8">
-        <v>16160</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E23" s="10">
+        <v>36000</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B24" s="5" t="inlineStr">
         <is>
@@ -2002,27 +1756,25 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000474392</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Интернет, мобильная связь, почтовые расходы</t>
+            <t xml:space="preserve">CUB0000475519</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Ежемесячное Т.О.пожарного оборудования Договор по оказанию услуг  ООО "СКБ"№ 0412/ТО от 14.12.2017г.</t>
           </r>
         </is>
       </c>
       <c r="C24" s="8">
-        <v>30000.0</v>
+        <v>7000</v>
       </c>
       <c r="D24" s="8">
-        <v>7876.01</v>
+        <v>0</v>
       </c>
       <c r="E24" s="10">
-        <v>22123.99</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A25" s="5"/>
       <c r="B25" s="5" t="inlineStr">
         <is>
           <r>
@@ -2035,27 +1787,25 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473934</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Питание сотрудников </t>
+            <t xml:space="preserve">CUB0000475520</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Затраты по договору спасательных услуг по договору № 112554 от 4.09.19</t>
           </r>
         </is>
       </c>
       <c r="C25" s="8">
-        <v>120000.0</v>
+        <v>5000</v>
       </c>
       <c r="D25" s="8">
-        <v>73450</v>
+        <v>0</v>
       </c>
       <c r="E25" s="10">
-        <v>46550</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A26" s="5"/>
       <c r="B26" s="5" t="inlineStr">
         <is>
           <r>
@@ -2068,26 +1818,26 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000474221</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Закупка Фреона</t>
+            <t xml:space="preserve">CUB0000476033</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Закупка металических шин заземления, листов нерж. для ремонта помещения, обрамление проходов между цехами</t>
           </r>
         </is>
       </c>
       <c r="C26" s="8">
-        <v>109000.0</v>
+        <v>180000</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
       </c>
       <c r="E26" s="10">
-        <v>109000</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="inlineStr">
         <is>
@@ -2101,21 +1851,21 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473915</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Обучение сотрудников ИТО</t>
+            <t xml:space="preserve">CUB0000475919</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Закупка спецодежды для сотрудников производства</t>
           </r>
         </is>
       </c>
       <c r="C27" s="8">
-        <v>10000.0</v>
+        <v>126011.8</v>
       </c>
       <c r="D27" s="8">
-        <v>9300</v>
+        <v>0</v>
       </c>
       <c r="E27" s="10">
-        <v>700</v>
+        <v>126011.8</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2132,26 +1882,26 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473952</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Обучение на водителей погрузчика</t>
+            <t xml:space="preserve">CUB0000475985</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Закупка СиЗ для сотрудников производства</t>
           </r>
         </is>
       </c>
       <c r="C28" s="8">
-        <v>40000.0</v>
+        <v>120000</v>
       </c>
       <c r="D28" s="8">
-        <v>36600</v>
+        <v>0</v>
       </c>
       <c r="E28" s="10">
-        <v>3400</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="inlineStr">
         <is>
@@ -2165,27 +1915,25 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473886</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Периодический МО Стоимость с учетом санитарного минимума </t>
+            <t xml:space="preserve">CUB0000475521</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Ежемесячное Т.О.  весового оборудования  Договор на техническое обслуживание и ремонт весового оборудования № СКСС39/17 от 21.11.2017</t>
           </r>
         </is>
       </c>
       <c r="C29" s="8">
-        <v>45000.0</v>
+        <v>6600</v>
       </c>
       <c r="D29" s="8">
-        <v>45000</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E29" s="10">
+        <v>6600</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30" s="5" t="inlineStr">
         <is>
           <r>
@@ -2198,27 +1946,25 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473912</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - ООО " ОО Император ", договор №82-18 от 01.08.2018. Ежемесячная оплата за охрану объекта</t>
+            <t xml:space="preserve">CUB0000475523</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Ремонт плат и электродвигатели</t>
           </r>
         </is>
       </c>
       <c r="C30" s="8">
-        <v>304000.0</v>
+        <v>50000</v>
       </c>
       <c r="D30" s="8">
-        <v>50488</v>
+        <v>0</v>
       </c>
       <c r="E30" s="10">
-        <v>253512</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="A31" s="5"/>
       <c r="B31" s="5" t="inlineStr">
         <is>
           <r>
@@ -2231,27 +1977,25 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473887</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Размещение рекламы в лифтах города. Поиск кандидатов на открытые вакансии</t>
+            <t xml:space="preserve">CUB0000475524</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - ТО холодильного оборудования, ремонт сплит-системы</t>
           </r>
         </is>
       </c>
       <c r="C31" s="8">
-        <v>70000.0</v>
+        <v>80400</v>
       </c>
       <c r="D31" s="8">
-        <v>45046.66</v>
+        <v>0</v>
       </c>
       <c r="E31" s="10">
-        <v>24953.34</v>
+        <v>80400</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="A32" s="5"/>
       <c r="B32" s="5" t="inlineStr">
         <is>
           <r>
@@ -2264,534 +2008,117 @@
               <sz val="11"/>
               <u val="none"/>
             </rPr>
-            <t xml:space="preserve">CUB0000473917</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Услуги чистки жироуловителя - ежемесячно Договор на выполнение работ №8010 от 21.11.17 ООО "Волгакомсервис"</t>
+            <t xml:space="preserve">CUB0000475529</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Ремонт формовочных, вырубных валов на РСА, ремонт осевых валов, изготовление шестерен, валов корпусов на узлы оборудования.</t>
           </r>
         </is>
       </c>
       <c r="C32" s="8">
-        <v>36000.0</v>
+        <v>300000</v>
       </c>
       <c r="D32" s="8">
         <v>0</v>
       </c>
       <c r="E32" s="10">
-        <v>36000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="true"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">CUB0000475992</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Интернет, мобильная связь, почтовые расходы</t>
+          </r>
+        </is>
+      </c>
+      <c r="C33" s="8">
+        <v>30000</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="10">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="true"/>
+              <strike val="false"/>
+              <color rgb="FF000000"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">CUB0000475918</t>
+          </r>
+          <r>
+            <t xml:space="preserve"> - Закупка хозматериалов для производства</t>
+          </r>
+        </is>
+      </c>
+      <c r="C34" s="8">
+        <v>351874.8</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="10">
+        <v>351874.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473898</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Ежемесячное Т.О.пожарного оборудования Договор по оказанию услуг  ООО "СКБ"№ 0412/ТО от 14.12.2017г.</t>
-          </r>
-        </is>
-      </c>
-      <c r="C33" s="8">
-        <v>7000.0</v>
-      </c>
-      <c r="D33" s="8">
-        <v>7000</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473899</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Затраты по договору спасательных услуг по договору № 112554 от 4.09.19</t>
-          </r>
-        </is>
-      </c>
-      <c r="C34" s="8">
-        <v>5000.0</v>
-      </c>
-      <c r="D34" s="8">
-        <v>5000</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473909</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - ТО холодильного оборудования, ремонт сплит-системы</t>
-          </r>
-        </is>
-      </c>
-      <c r="C35" s="8">
-        <v>80400.0</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="10">
-        <v>80400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473910</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - ТО водоподготовки</t>
-          </r>
-        </is>
-      </c>
-      <c r="C36" s="8">
-        <v>20000.0</v>
-      </c>
-      <c r="D36" s="8">
-        <v>15000</v>
-      </c>
-      <c r="E36" s="10">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473913</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Узел закрепления в сборе FK-1150 (302RV93050), Тонер для заправки картриджей Kyocera TK-1150 (1 кг), Ролик отделения бумаги (302F909171)</t>
-          </r>
-        </is>
-      </c>
-      <c r="C37" s="8">
-        <v>973533.34</v>
-      </c>
-      <c r="D37" s="8">
-        <v>973533</v>
-      </c>
-      <c r="E37" s="10">
-        <v>0.3399999999674</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473936</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Закупка спецодежды для сотрудников производства</t>
-          </r>
-        </is>
-      </c>
-      <c r="C38" s="8">
-        <v>123000.0</v>
-      </c>
-      <c r="D38" s="8">
-        <v>58606</v>
-      </c>
-      <c r="E38" s="10">
-        <v>64394</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473950</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Закупка СиЗ для сотрудников производства</t>
-          </r>
-        </is>
-      </c>
-      <c r="C39" s="8">
-        <v>120000.0</v>
-      </c>
-      <c r="D39" s="8">
-        <v>120000</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473908</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Ремонт плат и электродвигатели</t>
-          </r>
-        </is>
-      </c>
-      <c r="C40" s="8">
-        <v>50000.0</v>
-      </c>
-      <c r="D40" s="8">
-        <v>50000</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473911</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Ежемесячное Т.О.  весового оборудования  Договор на техническое обслуживание и ремонт весового оборудования № СКСС39/17 от 21.11.2017</t>
-          </r>
-        </is>
-      </c>
-      <c r="C41" s="8">
-        <v>6600.0</v>
-      </c>
-      <c r="D41" s="8">
-        <v>6600</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473918</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Ремонт формовочных, вырубных валов на РСА, ремонт осевых валов, изготовление шестерен, валов корпусов на узлы оборудования.</t>
-          </r>
-        </is>
-      </c>
-      <c r="C42" s="8">
-        <v>140000.0</v>
-      </c>
-      <c r="D42" s="8">
-        <v>140000</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473920</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - ТО компрессорного оборудования</t>
-          </r>
-        </is>
-      </c>
-      <c r="C43" s="8">
-        <v>250000.0</v>
-      </c>
-      <c r="D43" s="8">
-        <v>250000</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473961</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Поверка люминометра</t>
-          </r>
-        </is>
-      </c>
-      <c r="C44" s="8">
-        <v>12000.0</v>
-      </c>
-      <c r="D44" s="8">
-        <v>12000</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000472157</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - СП Услуги страхования ПР</t>
-          </r>
-        </is>
-      </c>
-      <c r="C45" s="8">
-        <v>18230.88</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="10">
-        <v>18230.88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473907</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Закупка соли для водоподготовки</t>
-          </r>
-        </is>
-      </c>
-      <c r="C46" s="8">
-        <v>40000.0</v>
-      </c>
-      <c r="D46" s="8">
-        <v>40000</v>
-      </c>
-      <c r="E46" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="Calibri"/>
-              <b val="true"/>
-              <i val="true"/>
-              <strike val="false"/>
-              <color rgb="FF000000"/>
-              <sz val="11"/>
-              <u val="none"/>
-            </rPr>
-            <t xml:space="preserve">CUB0000473935</t>
-          </r>
-          <r>
-            <t xml:space="preserve"> - Закупка хозматериалов для производства</t>
-          </r>
-        </is>
-      </c>
-      <c r="C47" s="8">
-        <v>125000.0</v>
-      </c>
-      <c r="D47" s="8">
-        <v>125000</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="9">
-        <f>SUM(C4:C47)</f>
-        <v>7597454.39</v>
-      </c>
-      <c r="D48" s="9">
-        <f>SUM(D4:D47)</f>
-        <v>5463296.73</v>
-      </c>
-      <c r="E48" s="9">
-        <f>SUM(E4:E47)</f>
-        <v>2134157.66</v>
+      <c r="B35" s="6"/>
+      <c r="C35" s="9">
+        <f>SUM(C4:C34)</f>
+        <v>4105738.7</v>
+      </c>
+      <c r="D35" s="9">
+        <f>SUM(D4:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="9">
+        <f>SUM(E4:E34)</f>
+        <v>4105738.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A29:A32"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
   </mergeCells>
